--- a/data/trans_orig/P22_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P22_R3-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24605</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16723</v>
+        <v>15745</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36397</v>
+        <v>35222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03556407903952041</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02417134644758471</v>
+        <v>0.02275830700013172</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05260708020096869</v>
+        <v>0.05090902889168483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -765,19 +765,19 @@
         <v>31400</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21824</v>
+        <v>21947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42616</v>
+        <v>45150</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04567253916431908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03174379031433935</v>
+        <v>0.03192231187781455</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06198688633564558</v>
+        <v>0.06567302677931902</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -786,19 +786,19 @@
         <v>56005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41602</v>
+        <v>42157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71853</v>
+        <v>71997</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04060236113062427</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03016005544956672</v>
+        <v>0.03056289903276949</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05209168886426219</v>
+        <v>0.05219560436288748</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>667251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>655459</v>
+        <v>656634</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>675133</v>
+        <v>676111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9644359209604796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9473929197990314</v>
+        <v>0.949090971108315</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9758286535524153</v>
+        <v>0.9772416929998681</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -836,19 +836,19 @@
         <v>656104</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>644888</v>
+        <v>642354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>665680</v>
+        <v>665557</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9543274608356809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9380131136643542</v>
+        <v>0.9343269732206811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9682562096856605</v>
+        <v>0.9680776881221856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1321</v>
@@ -857,19 +857,19 @@
         <v>1323355</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1307507</v>
+        <v>1307363</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1337758</v>
+        <v>1337203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9593976388693757</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9479083111357378</v>
+        <v>0.9478043956371126</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9698399445504333</v>
+        <v>0.9694371009672306</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19802</v>
+        <v>19342</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42077</v>
+        <v>42743</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03045473548603562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02061013906984929</v>
+        <v>0.02013127878684486</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04379382177756892</v>
+        <v>0.04448748004632153</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -982,19 +982,19 @@
         <v>38736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27613</v>
+        <v>27671</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52782</v>
+        <v>53863</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04000013055179335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02851433951832454</v>
+        <v>0.02857406704501213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05450508311544169</v>
+        <v>0.05562112701705459</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -1003,19 +1003,19 @@
         <v>67997</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52550</v>
+        <v>52530</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86677</v>
+        <v>86424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03524622428092218</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02723923888342502</v>
+        <v>0.02722928546907175</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04492930962177134</v>
+        <v>0.04479791474160836</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>931536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>918720</v>
+        <v>918054</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>940995</v>
+        <v>941455</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9695452645139644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9562061782224311</v>
+        <v>0.9555125199536781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9793898609301505</v>
+        <v>0.9798687212131549</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>873</v>
@@ -1053,19 +1053,19 @@
         <v>929657</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>915611</v>
+        <v>914530</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>940780</v>
+        <v>940722</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9599998694482067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9454949168845583</v>
+        <v>0.9443788729829455</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9714856604816755</v>
+        <v>0.9714259329549879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1741</v>
@@ -1074,19 +1074,19 @@
         <v>1861194</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1842514</v>
+        <v>1842767</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1876641</v>
+        <v>1876661</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9647537757190778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9550706903782287</v>
+        <v>0.9552020852583917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9727607611165749</v>
+        <v>0.9727707145309282</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>27330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18187</v>
+        <v>17736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38318</v>
+        <v>38753</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04033419836096881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02684169616980832</v>
+        <v>0.02617491090504387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05655124620733716</v>
+        <v>0.05719284401765877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1199,19 +1199,19 @@
         <v>32472</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23245</v>
+        <v>22940</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45173</v>
+        <v>44155</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04748521557955646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03399179241619388</v>
+        <v>0.03354594892806873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06605747961082116</v>
+        <v>0.06456862107456639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1220,19 +1220,19 @@
         <v>59802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45745</v>
+        <v>46167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77926</v>
+        <v>78113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04392614642496725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03360060446581346</v>
+        <v>0.03391086566876216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05723837770390208</v>
+        <v>0.05737599134494751</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>650252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>639264</v>
+        <v>638829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>659395</v>
+        <v>659846</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9596658016390311</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9434487537926625</v>
+        <v>0.9428071559823412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9731583038301912</v>
+        <v>0.9738250890949561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>664</v>
@@ -1270,19 +1270,19 @@
         <v>651369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638668</v>
+        <v>639686</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660596</v>
+        <v>660901</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9525147844204436</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.933942520389179</v>
+        <v>0.9354313789254338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9660082075838062</v>
+        <v>0.9664540510719314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1278</v>
@@ -1291,19 +1291,19 @@
         <v>1301621</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1283497</v>
+        <v>1283310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315678</v>
+        <v>1315256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9560738535750327</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9427616222960984</v>
+        <v>0.9426240086550528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.966399395534187</v>
+        <v>0.9660891343312379</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>49572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36559</v>
+        <v>37508</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63272</v>
+        <v>64436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05274165194785407</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03889696625304509</v>
+        <v>0.03990622111330486</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06731782410843457</v>
+        <v>0.06855595225360406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1416,19 +1416,19 @@
         <v>43502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31447</v>
+        <v>31223</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57908</v>
+        <v>58518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04193228010412076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03031263956793833</v>
+        <v>0.03009633225260909</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05581843599884966</v>
+        <v>0.0564067756537532</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -1437,19 +1437,19 @@
         <v>93074</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77295</v>
+        <v>75688</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112971</v>
+        <v>113770</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04707037975392099</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03909063363947678</v>
+        <v>0.03827798623275903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05713327883553887</v>
+        <v>0.05753705996931967</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>890328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>876628</v>
+        <v>875464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>903341</v>
+        <v>902392</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9472583480521459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9326821758915654</v>
+        <v>0.931444047746396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9611030337469549</v>
+        <v>0.9600937788866951</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>955</v>
@@ -1487,19 +1487,19 @@
         <v>993930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>979524</v>
+        <v>978914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005985</v>
+        <v>1006209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9580677198958792</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9441815640011508</v>
+        <v>0.9435932243462468</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9696873604320617</v>
+        <v>0.9699036677473908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1895</v>
@@ -1508,19 +1508,19 @@
         <v>1884257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1864360</v>
+        <v>1863561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1900036</v>
+        <v>1901643</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.952929620246079</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9428667211644611</v>
+        <v>0.9424629400306799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9609093663605233</v>
+        <v>0.9617220137672404</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>130768</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -1633,19 +1633,19 @@
         <v>146110</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -1654,19 +1654,19 @@
         <v>276878</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3139367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3115071</v>
+        <v>3115832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3160289</v>
+        <v>3160239</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9600115479054573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9525818136342807</v>
+        <v>0.9528143425352</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9664094300175423</v>
+        <v>0.9663941183498533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3156</v>
@@ -1704,19 +1704,19 @@
         <v>3231060</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3206744</v>
+        <v>3206683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3252409</v>
+        <v>3253542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9567359279740694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.949535997383829</v>
+        <v>0.9495176519314039</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9630576732530999</v>
+        <v>0.9633931459512605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6235</v>
@@ -1725,19 +1725,19 @@
         <v>6370426</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6336335</v>
+        <v>6336717</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6403063</v>
+        <v>6404154</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9583473659576425</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.953218780850039</v>
+        <v>0.9532762206738664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9632571541635275</v>
+        <v>0.9634213292528727</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>25407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15641</v>
+        <v>16184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39415</v>
+        <v>38383</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03611614898188111</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02223421437582074</v>
+        <v>0.02300552301650676</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05602936003145079</v>
+        <v>0.05456181947087262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2090,19 +2090,19 @@
         <v>7755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3075</v>
+        <v>3085</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16040</v>
+        <v>15303</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01112563277222598</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004411928649213599</v>
+        <v>0.004425581321898359</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02301122369760257</v>
+        <v>0.02195427685743685</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -2111,19 +2111,19 @@
         <v>33162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22080</v>
+        <v>21828</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47497</v>
+        <v>47893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0236781602228652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01576543872882888</v>
+        <v>0.01558580091974249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03391418706818767</v>
+        <v>0.03419625256373247</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>678062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>664054</v>
+        <v>665086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687828</v>
+        <v>687285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9638838510181189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9439706399685494</v>
+        <v>0.9454381805291274</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9777657856241793</v>
+        <v>0.9769944769834933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>643</v>
@@ -2161,19 +2161,19 @@
         <v>689295</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>681010</v>
+        <v>681747</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>693975</v>
+        <v>693965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.988874367227774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9769887763023981</v>
+        <v>0.978045723142563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9955880713507864</v>
+        <v>0.9955744186781017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1296</v>
@@ -2182,19 +2182,19 @@
         <v>1367357</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1353022</v>
+        <v>1352626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1378439</v>
+        <v>1378691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9763218397771348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9660858129318123</v>
+        <v>0.965803747436268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9842345612711711</v>
+        <v>0.9844141990802576</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>47619</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33599</v>
+        <v>32927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63720</v>
+        <v>63774</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04682433700763087</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03303831855010007</v>
+        <v>0.03237724155039919</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06265675562237713</v>
+        <v>0.06270970779892233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -2307,19 +2307,19 @@
         <v>23508</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14733</v>
+        <v>14993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36759</v>
+        <v>35534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02277517572373866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01427353886286066</v>
+        <v>0.01452510095873919</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03561315563205016</v>
+        <v>0.03442556480941811</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -2328,19 +2328,19 @@
         <v>71127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52730</v>
+        <v>53396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91404</v>
+        <v>92526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03471045478484635</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02573280694134902</v>
+        <v>0.02605758211932849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04460595548930946</v>
+        <v>0.04515345620093129</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>969347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>953246</v>
+        <v>953192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>983367</v>
+        <v>984039</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9531756629923691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9373432443776228</v>
+        <v>0.9372902922010776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9669616814498999</v>
+        <v>0.9676227584496008</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>919</v>
@@ -2378,19 +2378,19 @@
         <v>1008676</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>995425</v>
+        <v>996650</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1017451</v>
+        <v>1017191</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9772248242762613</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9643868443679497</v>
+        <v>0.9655744351905818</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9857264611371394</v>
+        <v>0.9854748990412608</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1816</v>
@@ -2399,19 +2399,19 @@
         <v>1978023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1957746</v>
+        <v>1956624</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1996420</v>
+        <v>1995754</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9652895452151536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9553940445106903</v>
+        <v>0.9548465437990686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9742671930586507</v>
+        <v>0.9739424178806713</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>40157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27037</v>
+        <v>27993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54483</v>
+        <v>57814</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0530041944230509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03568723754847251</v>
+        <v>0.0369483910866864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07191370263333134</v>
+        <v>0.07630934326282986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2524,19 +2524,19 @@
         <v>44500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30846</v>
+        <v>30338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62027</v>
+        <v>60499</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05725860259758189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03969014963470772</v>
+        <v>0.0390360971490787</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07981037899640062</v>
+        <v>0.07784455461138584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -2545,19 +2545,19 @@
         <v>84657</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66093</v>
+        <v>64626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107979</v>
+        <v>104792</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05515849545092252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04306311627836608</v>
+        <v>0.04210706215354754</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07035390747572366</v>
+        <v>0.06827770005461474</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>717466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>703140</v>
+        <v>699809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>730586</v>
+        <v>729630</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9469958055769491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9280862973666684</v>
+        <v>0.92369065673717</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9643127624515273</v>
+        <v>0.9630516089133132</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>671</v>
@@ -2595,19 +2595,19 @@
         <v>732674</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>715147</v>
+        <v>716675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>746328</v>
+        <v>746836</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9427413974024181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9201896210036002</v>
+        <v>0.922155445388614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9603098503652924</v>
+        <v>0.9609639028509213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1328</v>
@@ -2616,19 +2616,19 @@
         <v>1450140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1426818</v>
+        <v>1430005</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1468704</v>
+        <v>1470171</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9448415045490774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9296460925242762</v>
+        <v>0.9317222999453848</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9569368837216339</v>
+        <v>0.9578929378464524</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>45807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32958</v>
+        <v>33142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61873</v>
+        <v>61009</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04833314302913441</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03477570851416268</v>
+        <v>0.03496980524826585</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06528437493462549</v>
+        <v>0.06437278092698234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -2741,19 +2741,19 @@
         <v>46735</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34378</v>
+        <v>34821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63183</v>
+        <v>63636</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.044429419824133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03268144379722001</v>
+        <v>0.03310249286158656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06006580195807174</v>
+        <v>0.06049641789159649</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -2762,19 +2762,19 @@
         <v>92543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73622</v>
+        <v>73334</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115857</v>
+        <v>116208</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04627960859566824</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03681754298784338</v>
+        <v>0.03667354455512312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05793906455686074</v>
+        <v>0.05811435100105673</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>901932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>885866</v>
+        <v>886730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>914781</v>
+        <v>914597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9516668569708656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9347156250653745</v>
+        <v>0.9356272190730173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9652242914858379</v>
+        <v>0.9650301947517341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>961</v>
@@ -2812,19 +2812,19 @@
         <v>1005166</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>988718</v>
+        <v>988265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1017523</v>
+        <v>1017080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.955570580175867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9399341980419285</v>
+        <v>0.9395035821084036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.96731855620278</v>
+        <v>0.9668975071384137</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1827</v>
@@ -2833,19 +2833,19 @@
         <v>1907097</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1883783</v>
+        <v>1883432</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1926018</v>
+        <v>1926306</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9537203914043317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9420609354431393</v>
+        <v>0.9418856489989434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9631824570121567</v>
+        <v>0.9633264554448773</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>158990</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04640956665480246</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -2958,19 +2958,19 @@
         <v>122499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03442605532523693</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>239</v>
@@ -2979,19 +2979,19 @@
         <v>281488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04030412762211991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3266808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3236864</v>
+        <v>3237373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3293229</v>
+        <v>3291773</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9535904333451976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.944849706239413</v>
+        <v>0.9449982320364894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9613028679299525</v>
+        <v>0.9608776663856868</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3194</v>
@@ -3029,19 +3029,19 @@
         <v>3435810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3410523</v>
+        <v>3409923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3457138</v>
+        <v>3459242</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9655739446747631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9584674398774959</v>
+        <v>0.9582987487986343</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9715677382574393</v>
+        <v>0.9721590567637763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6267</v>
@@ -3050,19 +3050,19 @@
         <v>6702619</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6664722</v>
+        <v>6665935</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6737162</v>
+        <v>6735417</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9596958723778801</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.954269759489092</v>
+        <v>0.9544433875720977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9646418138634448</v>
+        <v>0.9643920009058445</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>20276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12576</v>
+        <v>12298</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32068</v>
+        <v>31653</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03009922759116402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01866856338377439</v>
+        <v>0.01825686997132356</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04760417764888072</v>
+        <v>0.04698857521499838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3415,19 +3415,19 @@
         <v>8621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3869</v>
+        <v>3880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16331</v>
+        <v>17356</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01281251861283505</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005749556084779193</v>
+        <v>0.005766770959629845</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02427201428256065</v>
+        <v>0.02579544770973591</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -3436,19 +3436,19 @@
         <v>28897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18754</v>
+        <v>19260</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41063</v>
+        <v>41335</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02146096213209509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01392803257396426</v>
+        <v>0.01430418348356758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03049704089765062</v>
+        <v>0.03069897035678228</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>653356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>641564</v>
+        <v>641979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>661056</v>
+        <v>661334</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.969900772408836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9523958223511194</v>
+        <v>0.9530114247850018</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9813314366162256</v>
+        <v>0.9817431300286764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>658</v>
@@ -3486,19 +3486,19 @@
         <v>664218</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>656508</v>
+        <v>655483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>668970</v>
+        <v>668959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9871874813871649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9757279857174394</v>
+        <v>0.9742045522902646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9942504439152208</v>
+        <v>0.9942332290403701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1291</v>
@@ -3507,19 +3507,19 @@
         <v>1317574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1305408</v>
+        <v>1305136</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1327717</v>
+        <v>1327211</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9785390378679049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9695029591023493</v>
+        <v>0.9693010296432176</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9860719674260358</v>
+        <v>0.9856958165164325</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>54347</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39731</v>
+        <v>41422</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71581</v>
+        <v>71666</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05320297027056427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0388947590542882</v>
+        <v>0.04055019303873394</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07007440012364492</v>
+        <v>0.07015760821042998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3632,19 +3632,19 @@
         <v>24852</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16739</v>
+        <v>16580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37000</v>
+        <v>34983</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02387299328012862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01607917572701986</v>
+        <v>0.01592646525195573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03554219869842139</v>
+        <v>0.03360468732576732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3653,19 +3653,19 @@
         <v>79199</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61965</v>
+        <v>63734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98773</v>
+        <v>100209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03839925900423612</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03004350532141601</v>
+        <v>0.03090137644459891</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04789009681991062</v>
+        <v>0.04858627844982693</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>967149</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>949915</v>
+        <v>949830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>981765</v>
+        <v>980074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9467970297294357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.929925599876355</v>
+        <v>0.92984239178957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9611052409457118</v>
+        <v>0.959449806961266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>950</v>
@@ -3703,19 +3703,19 @@
         <v>1016155</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1004007</v>
+        <v>1006024</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1024268</v>
+        <v>1024427</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9761270067198714</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9644578013015785</v>
+        <v>0.966395312674232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9839208242729801</v>
+        <v>0.9840735347480443</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1854</v>
@@ -3724,19 +3724,19 @@
         <v>1983304</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1963730</v>
+        <v>1962294</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2000538</v>
+        <v>1998769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9616007409957639</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9521099031800894</v>
+        <v>0.951413721550173</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.969956494678584</v>
+        <v>0.9690986235554011</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>16897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10412</v>
+        <v>9635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27098</v>
+        <v>26494</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02230052696984135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0137409701583066</v>
+        <v>0.01271644591304518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03576292694734615</v>
+        <v>0.03496574608725174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3849,19 +3849,19 @@
         <v>30746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21639</v>
+        <v>20505</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43691</v>
+        <v>43735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03936183319751991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02770266503619217</v>
+        <v>0.02625049552190524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05593398735176647</v>
+        <v>0.05599034225580989</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -3870,19 +3870,19 @@
         <v>47643</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34645</v>
+        <v>34702</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64169</v>
+        <v>63191</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03096093856859777</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02251430659415776</v>
+        <v>0.02255088452030277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04170031506506166</v>
+        <v>0.04106477016731262</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>740809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>730608</v>
+        <v>731212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>747294</v>
+        <v>748071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9776994730301587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.964237073052654</v>
+        <v>0.9650342539127482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9862590298416934</v>
+        <v>0.9872835540869548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>704</v>
@@ -3920,19 +3920,19 @@
         <v>750366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>737421</v>
+        <v>737377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>759473</v>
+        <v>760607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.96063816680248</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9440660126482333</v>
+        <v>0.9440096577441903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9722973349638078</v>
+        <v>0.9737495044780948</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1383</v>
@@ -3941,19 +3941,19 @@
         <v>1491175</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1474649</v>
+        <v>1475627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1504173</v>
+        <v>1504116</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9690390614314023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9582996849349383</v>
+        <v>0.9589352298326873</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9774856934058422</v>
+        <v>0.9774491154796972</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>64826</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50799</v>
+        <v>50847</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82207</v>
+        <v>82754</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06921356354004272</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05423706913925495</v>
+        <v>0.05428853947900046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0877713843941247</v>
+        <v>0.08835525918129536</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -4066,19 +4066,19 @@
         <v>56966</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43787</v>
+        <v>42932</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73207</v>
+        <v>73599</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05457666599678465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04195005755459202</v>
+        <v>0.04113089797861528</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07013687346270782</v>
+        <v>0.07051201632000605</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -4087,19 +4087,19 @@
         <v>121792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101369</v>
+        <v>100039</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145820</v>
+        <v>144261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06149905050801876</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05118667851862661</v>
+        <v>0.05051478860811982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07363227996108916</v>
+        <v>0.0728452331296509</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>871777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854396</v>
+        <v>853849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>885804</v>
+        <v>885756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9307864364599573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.912228615605875</v>
+        <v>0.9116447408187043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.945762930860745</v>
+        <v>0.9457114605209994</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>908</v>
@@ -4137,19 +4137,19 @@
         <v>986813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>970572</v>
+        <v>970180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>999992</v>
+        <v>1000847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9454233340032153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9298631265372922</v>
+        <v>0.929487983679994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.958049942445408</v>
+        <v>0.9588691020213848</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1776</v>
@@ -4158,19 +4158,19 @@
         <v>1858590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1834562</v>
+        <v>1836121</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1879013</v>
+        <v>1880343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9385009494919813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9263677200389103</v>
+        <v>0.9271547668703489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9488133214813733</v>
+        <v>0.94948521139188</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>156345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04612722458709606</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -4283,19 +4283,19 @@
         <v>121185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03424518408138488</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>256</v>
@@ -4304,19 +4304,19 @@
         <v>277530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04005817749975527</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3233092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3205685</v>
+        <v>3205771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3258040</v>
+        <v>3259092</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9538727754129039</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.945786836233077</v>
+        <v>0.9458121562661442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9612333513336628</v>
+        <v>0.9615438527881605</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3220</v>
@@ -4354,19 +4354,19 @@
         <v>3417552</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3393676</v>
+        <v>3394158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3437201</v>
+        <v>3439103</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9657548159186151</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9590077426002296</v>
+        <v>0.9591438300754681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9713072435491823</v>
+        <v>0.971844846649943</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6304</v>
@@ -4375,19 +4375,19 @@
         <v>6650645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6611730</v>
+        <v>6616938</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6681615</v>
+        <v>6683035</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9599418225002447</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9543249745701957</v>
+        <v>0.9550766204182631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9644119426437127</v>
+        <v>0.9646170129636159</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>17073</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10299</v>
+        <v>9887</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27552</v>
+        <v>27727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02471829517522814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01491068710774985</v>
+        <v>0.01431429773680372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03988999252395607</v>
+        <v>0.04014336151897547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4740,19 +4740,19 @@
         <v>8765</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5327</v>
+        <v>5343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13371</v>
+        <v>14173</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0119383206507455</v>
+        <v>0.01193832065074549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007256132846758731</v>
+        <v>0.007278106819616452</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01821275217371218</v>
+        <v>0.0193050006719521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -4761,19 +4761,19 @@
         <v>25838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18528</v>
+        <v>17963</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37589</v>
+        <v>35569</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01813336343061531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01300326739313694</v>
+        <v>0.01260686404787946</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02638008194338486</v>
+        <v>0.02496269579519967</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>673637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>663158</v>
+        <v>662983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>680411</v>
+        <v>680823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9752817048247719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9601100074760439</v>
+        <v>0.9598566384810243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9850893128922503</v>
+        <v>0.9856857022631963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1222</v>
@@ -4811,19 +4811,19 @@
         <v>725415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>720809</v>
+        <v>720007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>728853</v>
+        <v>728837</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9880616793492545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9817872478262877</v>
+        <v>0.9806949993280477</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9927438671532413</v>
+        <v>0.9927218931803834</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1934</v>
@@ -4832,19 +4832,19 @@
         <v>1399051</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1387300</v>
+        <v>1389320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1406361</v>
+        <v>1406926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9818666365693848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9736199180566151</v>
+        <v>0.9750373042048002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9869967326068627</v>
+        <v>0.9873931359521204</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>35531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22855</v>
+        <v>23087</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51582</v>
+        <v>51392</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03387420939952761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02178954289472868</v>
+        <v>0.02201048287804023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04917662357994398</v>
+        <v>0.04899514892549671</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -4957,19 +4957,19 @@
         <v>29687</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22426</v>
+        <v>21855</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41364</v>
+        <v>39943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02770713963706796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02093016988729662</v>
+        <v>0.0203975455379173</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03860471537855299</v>
+        <v>0.03727826302580543</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -4978,19 +4978,19 @@
         <v>65219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50830</v>
+        <v>50416</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82972</v>
+        <v>84254</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03075787124374629</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02397183593443779</v>
+        <v>0.02377677491769452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03913056886041118</v>
+        <v>0.03973502451746988</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1013386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>997335</v>
+        <v>997525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1026062</v>
+        <v>1025830</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9661257906004724</v>
+        <v>0.9661257906004725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9508233764200558</v>
+        <v>0.9510048510745031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.978210457105271</v>
+        <v>0.9779895171219598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1473</v>
@@ -5028,19 +5028,19 @@
         <v>1041787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1030110</v>
+        <v>1031531</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1049048</v>
+        <v>1049619</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9722928603629321</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9613952846214473</v>
+        <v>0.9627217369741943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9790698301127039</v>
+        <v>0.9796024544620827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2407</v>
@@ -5049,19 +5049,19 @@
         <v>2055172</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2037419</v>
+        <v>2036137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2069561</v>
+        <v>2069975</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9692421287562537</v>
+        <v>0.9692421287562536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.960869431139589</v>
+        <v>0.9602649754825299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9760281640655623</v>
+        <v>0.9762232250823052</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>31100</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18912</v>
+        <v>19484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47215</v>
+        <v>48080</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03872681321707104</v>
+        <v>0.03872681321707103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02354892191440144</v>
+        <v>0.02426143613831155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05879265779253871</v>
+        <v>0.05986993174475801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -5174,19 +5174,19 @@
         <v>21440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14897</v>
+        <v>14633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30011</v>
+        <v>31354</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02639599865449859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01833980544080174</v>
+        <v>0.01801550320680576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03694721516397082</v>
+        <v>0.03860038830195314</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -5195,19 +5195,19 @@
         <v>52541</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37458</v>
+        <v>38231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71549</v>
+        <v>72009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03252634593224719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02318876898889856</v>
+        <v>0.02366762774381182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04429386874422871</v>
+        <v>0.04457838737612364</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>771973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>755858</v>
+        <v>754993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784161</v>
+        <v>783589</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9612731867829289</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9412073422074613</v>
+        <v>0.9401300682552421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9764510780855986</v>
+        <v>0.975738563861689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1018</v>
@@ -5245,19 +5245,19 @@
         <v>790819</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>782248</v>
+        <v>780905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>797362</v>
+        <v>797626</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9736040013455014</v>
+        <v>0.9736040013455013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9630527848360289</v>
+        <v>0.9613996116980468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9816601945591982</v>
+        <v>0.9819844967931941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1672</v>
@@ -5266,19 +5266,19 @@
         <v>1562791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1543783</v>
+        <v>1543323</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1577874</v>
+        <v>1577101</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9674736540677529</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9557061312557713</v>
+        <v>0.9554216126238765</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9768112310111015</v>
+        <v>0.9763323722561882</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>45946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33650</v>
+        <v>35089</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61302</v>
+        <v>61600</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04640763544867541</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03398777129629785</v>
+        <v>0.035440754471465</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06191702745035049</v>
+        <v>0.06221866152772886</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -5391,19 +5391,19 @@
         <v>43427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33601</v>
+        <v>33459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55942</v>
+        <v>56711</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03886976821563212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03007473479271219</v>
+        <v>0.02994781573340315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05007138036770876</v>
+        <v>0.0507590372918495</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -5412,19 +5412,19 @@
         <v>89374</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73575</v>
+        <v>74810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108290</v>
+        <v>109128</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04241122177402373</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03491392252987102</v>
+        <v>0.03550038001251556</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05138751824897186</v>
+        <v>0.05178545769747189</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>944116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>928760</v>
+        <v>928462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>956412</v>
+        <v>954973</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9535923645513247</v>
+        <v>0.9535923645513246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9380829725496493</v>
+        <v>0.9377813384722716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9660122287037022</v>
+        <v>0.9645592455285356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1496</v>
@@ -5462,19 +5462,19 @@
         <v>1073826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1061311</v>
+        <v>1060542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1083652</v>
+        <v>1083794</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.961130231784368</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9499286196322912</v>
+        <v>0.9492409627081506</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9699252652072877</v>
+        <v>0.970052184266597</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2447</v>
@@ -5483,19 +5483,19 @@
         <v>2017941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1999025</v>
+        <v>1998187</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2033740</v>
+        <v>2032505</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9575887782259763</v>
+        <v>0.9575887782259762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9486124817510282</v>
+        <v>0.9482145423025281</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9650860774701291</v>
+        <v>0.9644996199874847</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>129651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03669970105723599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -5608,19 +5608,19 @@
         <v>103320</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0276614500664914</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -5629,19 +5629,19 @@
         <v>232971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03205472307522696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3403111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3375742</v>
+        <v>3377047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3426502</v>
+        <v>3424440</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.963300298942764</v>
+        <v>0.9633002989427641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9555532584693236</v>
+        <v>0.9559225669879595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.96992144107712</v>
+        <v>0.9693377904353807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5209</v>
@@ -5679,19 +5679,19 @@
         <v>3631846</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3615260</v>
+        <v>3613742</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3647603</v>
+        <v>3647259</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9723385499335085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9678980611957907</v>
+        <v>0.967491555148759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9765571740310343</v>
+        <v>0.976465044783837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8460</v>
@@ -5700,19 +5700,19 @@
         <v>7034957</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7000016</v>
+        <v>7001671</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7063475</v>
+        <v>7062999</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9679452769247731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9631378152983926</v>
+        <v>0.9633655141936649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9718690853976257</v>
+        <v>0.9718036776954805</v>
       </c>
     </row>
     <row r="18">
